--- a/docs/source/recursos/agricultura/tabla_cat_fv_agrie_bio_cober_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/agricultura/tabla_cat_fv_agrie_bio_cober_cobertura_usv_svi_16cats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E35A30-689A-4613-AE0B-D0E6001E8F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF95782-98BE-4F02-82F6-47B920DF71E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5620ACDC-EA00-44B4-BE3D-D001DB0C0DC4}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Sin vegetación</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Tular</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>ND</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -688,7 +688,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -702,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -716,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -730,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
